--- a/source_data/profile_1.xlsx
+++ b/source_data/profile_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE0E672-2F76-D744-B5E9-F24875D87678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE4BDDB-3EA2-2B46-8155-C3FC88925635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="268">
   <si>
     <t>Epoch</t>
   </si>
@@ -834,6 +834,24 @@
   </si>
   <si>
     <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -970,10 +988,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1583,23 +1601,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C4BD8C-CCB1-D540-B5F1-57CAC0E84392}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
@@ -1607,16 +1626,22 @@
         <v>211</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -1624,10 +1649,16 @@
         <v>204</v>
       </c>
       <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -1635,17 +1666,25 @@
         <v>204</v>
       </c>
       <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2036,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
@@ -2051,34 +2090,34 @@
       <c r="A1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2106,56 +2145,56 @@
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
@@ -2222,16 +2261,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source_data/profile_1.xlsx
+++ b/source_data/profile_1.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE4BDDB-3EA2-2B46-8155-C3FC88925635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB763165-4A5A-874B-9956-42D648690135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="profile1" sheetId="11" r:id="rId5"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId6"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId7"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId8"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId9"/>
-    <sheet name="studyDesignProcedures" sheetId="13" r:id="rId10"/>
-    <sheet name="studyDesignEncounters" sheetId="14" r:id="rId11"/>
-    <sheet name="studyDesignElements" sheetId="15" r:id="rId12"/>
-    <sheet name="configuration" sheetId="10" r:id="rId13"/>
+    <sheet name="studyDesignArms" sheetId="16" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="17" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="profile1" sheetId="11" r:id="rId7"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
+    <sheet name="studyDesignProcedures" sheetId="13" r:id="rId12"/>
+    <sheet name="studyDesignEncounters" sheetId="14" r:id="rId13"/>
+    <sheet name="studyDesignElements" sheetId="15" r:id="rId14"/>
+    <sheet name="configuration" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -991,10 +993,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1600,10 +1602,531 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="59.5" customWidth="1"/>
+    <col min="6" max="7" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C4BD8C-CCB1-D540-B5F1-57CAC0E84392}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1691,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029D84EC-0EDA-504A-83E2-F11409AF2A05}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1849,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB5F767-484F-2142-8F53-972CA3AC92C1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1955,7 +2478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2112,34 +2635,34 @@
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2261,22 +2784,50 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43C927-EAA7-F34C-9AF2-E015FE8AC359}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AB65E4-C826-B545-B64B-8309519EC1AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2572,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE8670E-14F5-DF47-B190-1E715EB319D4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2848,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2937,7 +3488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3027,525 +3578,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source_data/profile_1.xlsx
+++ b/source_data/profile_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB763165-4A5A-874B-9956-42D648690135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4F1B0-FE97-A748-B688-9D58BC699909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51580" yWindow="6560" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="289">
   <si>
     <t>Epoch</t>
   </si>
@@ -854,6 +854,69 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1056,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2635,34 +2698,34 @@
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2784,16 +2847,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2801,28 +2864,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43C927-EAA7-F34C-9AF2-E015FE8AC359}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AB65E4-C826-B545-B64B-8309519EC1AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
